--- a/data/SAF.xlsx
+++ b/data/SAF.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SAF</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AH176"/>
+  <dimension ref="A1:AI176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27805,6 +27805,7 @@
     <col min="32" max="32" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="33" max="33" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27950,6 +27951,9 @@
       <c r="AH11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AI11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28051,6 +28055,9 @@
       <c r="AH12" s="25" t="n">
         <v>5.6103124022E10</v>
       </c>
+      <c r="AI12" s="25" t="n">
+        <v>9.8294839147E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28152,6 +28159,9 @@
       <c r="AH13" s="25" t="n">
         <v>2.0794388E9</v>
       </c>
+      <c r="AI13" s="25" t="n">
+        <v>1.4309985E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28253,6 +28263,9 @@
       <c r="AH14" s="25" t="n">
         <v>9.023685222E9</v>
       </c>
+      <c r="AI14" s="25" t="n">
+        <v>1.1863840647E10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28354,6 +28367,9 @@
       <c r="AH15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28455,6 +28471,9 @@
       <c r="AH16" s="25" t="n">
         <v>4.5E10</v>
       </c>
+      <c r="AI16" s="25" t="n">
+        <v>8.5E10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28556,6 +28575,9 @@
       <c r="AH17" s="25" t="n">
         <v>5.500215E10</v>
       </c>
+      <c r="AI17" s="25" t="n">
+        <v>4.500215E10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28657,6 +28679,9 @@
       <c r="AH18" s="25" t="n">
         <v>2150000.0</v>
       </c>
+      <c r="AI18" s="25" t="n">
+        <v>2150000.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28758,6 +28783,9 @@
       <c r="AH19" s="25" t="n">
         <v>5.5E10</v>
       </c>
+      <c r="AI19" s="25" t="n">
+        <v>4.5E10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28859,6 +28887,9 @@
       <c r="AH20" s="25" t="n">
         <v>5.5E10</v>
       </c>
+      <c r="AI20" s="25" t="n">
+        <v>4.5E10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28960,6 +28991,9 @@
       <c r="AH21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -29061,6 +29095,9 @@
       <c r="AH22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29162,6 +29199,9 @@
       <c r="AH23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29263,6 +29303,9 @@
       <c r="AH24" s="25" t="n">
         <v>1.152863016E9</v>
       </c>
+      <c r="AI24" s="25" t="n">
+        <v>6.51254314E8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29364,6 +29407,9 @@
       <c r="AH25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29465,6 +29511,9 @@
       <c r="AH26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29566,6 +29615,9 @@
       <c r="AH27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29667,6 +29719,9 @@
       <c r="AH28" s="25" t="n">
         <v>1.152863016E9</v>
       </c>
+      <c r="AI28" s="25" t="n">
+        <v>6.51254314E8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29768,6 +29823,9 @@
       <c r="AH29" s="25" t="n">
         <v>6.7503698071E10</v>
       </c>
+      <c r="AI29" s="25" t="n">
+        <v>6.1010454193E10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29869,6 +29927,9 @@
       <c r="AH30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29970,6 +30031,9 @@
       <c r="AH31" s="25" t="n">
         <v>1.3468191844E10</v>
       </c>
+      <c r="AI31" s="25" t="n">
+        <v>1.2757071494E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -30071,6 +30135,9 @@
       <c r="AH32" s="25" t="n">
         <v>4.33148544E8</v>
       </c>
+      <c r="AI32" s="25" t="n">
+        <v>3.7069311E8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -30172,6 +30239,9 @@
       <c r="AH33" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI33" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -30273,6 +30343,9 @@
       <c r="AH34" s="25" t="n">
         <v>5.2695319782E10</v>
       </c>
+      <c r="AI34" s="25" t="n">
+        <v>4.7145193069E10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30374,6 +30447,9 @@
       <c r="AH35" s="25" t="n">
         <v>9.07037901E8</v>
       </c>
+      <c r="AI35" s="25" t="n">
+        <v>7.3749652E8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30475,6 +30551,9 @@
       <c r="AH36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30576,6 +30655,9 @@
       <c r="AH37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30677,6 +30759,9 @@
       <c r="AH38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30778,6 +30863,9 @@
       <c r="AH39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30879,6 +30967,9 @@
       <c r="AH40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30980,6 +31071,9 @@
       <c r="AH41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -31081,6 +31175,9 @@
       <c r="AH42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -31182,6 +31279,9 @@
       <c r="AH43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -31283,6 +31383,9 @@
       <c r="AH44" s="25" t="n">
         <v>5.7014552E7</v>
       </c>
+      <c r="AI44" s="25" t="n">
+        <v>5.7014552E7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -31384,6 +31487,9 @@
       <c r="AH45" s="25" t="n">
         <v>5.7014552E7</v>
       </c>
+      <c r="AI45" s="25" t="n">
+        <v>5.7014552E7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -31485,6 +31591,9 @@
       <c r="AH46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31586,6 +31695,9 @@
       <c r="AH47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -31687,6 +31799,9 @@
       <c r="AH48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31788,6 +31903,9 @@
       <c r="AH49" s="25" t="n">
         <v>1.5398902542E11</v>
       </c>
+      <c r="AI49" s="25" t="n">
+        <v>1.55465527873E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31889,6 +32007,9 @@
       <c r="AH50" s="25" t="n">
         <v>1.53399036701E11</v>
       </c>
+      <c r="AI50" s="25" t="n">
+        <v>1.53399036701E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31990,6 +32111,9 @@
       <c r="AH51" s="25" t="n">
         <v>7.36391314E8</v>
       </c>
+      <c r="AI51" s="25" t="n">
+        <v>2.212893767E9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -32091,6 +32215,9 @@
       <c r="AH52" s="25" t="n">
         <v>-1.46402595E8</v>
       </c>
+      <c r="AI52" s="25" t="n">
+        <v>-1.46402595E8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -32192,6 +32319,9 @@
       <c r="AH53" s="25" t="n">
         <v>1.50494857489E11</v>
       </c>
+      <c r="AI53" s="25" t="n">
+        <v>1.5124163506E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -32293,6 +32423,9 @@
       <c r="AH54" s="25" t="n">
         <v>1.49052175754E11</v>
       </c>
+      <c r="AI54" s="25" t="n">
+        <v>1.49052175754E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -32394,6 +32527,9 @@
       <c r="AH55" s="25" t="n">
         <v>1.58908433E9</v>
       </c>
+      <c r="AI55" s="25" t="n">
+        <v>2.335861901E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -32495,6 +32631,9 @@
       <c r="AH56" s="25" t="n">
         <v>-1.46402595E8</v>
       </c>
+      <c r="AI56" s="25" t="n">
+        <v>-1.46402595E8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -32596,6 +32735,9 @@
       <c r="AH57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -32697,6 +32839,9 @@
       <c r="AH58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -32798,6 +32943,9 @@
       <c r="AH59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -32899,6 +33047,9 @@
       <c r="AH60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -33000,6 +33151,9 @@
       <c r="AH61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -33101,6 +33255,9 @@
       <c r="AH62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -33202,6 +33359,9 @@
       <c r="AH63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -33303,6 +33463,9 @@
       <c r="AH64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -33404,6 +33567,9 @@
       <c r="AH65" s="25" t="n">
         <v>1.9889036E10</v>
       </c>
+      <c r="AI65" s="25" t="n">
+        <v>1.9889036E10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -33505,6 +33671,9 @@
       <c r="AH66" s="25" t="n">
         <v>1.9889036E10</v>
       </c>
+      <c r="AI66" s="25" t="n">
+        <v>1.9889036E10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -33606,6 +33775,9 @@
       <c r="AH67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -33707,6 +33879,9 @@
       <c r="AH68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -33808,6 +33983,9 @@
       <c r="AH69" s="25" t="n">
         <v>1.5E8</v>
       </c>
+      <c r="AI69" s="25" t="n">
+        <v>1.5E8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -33909,6 +34087,9 @@
       <c r="AH70" s="25" t="n">
         <v>1.5E8</v>
       </c>
+      <c r="AI70" s="25" t="n">
+        <v>1.5E8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -34010,6 +34191,9 @@
       <c r="AH71" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -34111,6 +34295,9 @@
       <c r="AH72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -34212,6 +34399,9 @@
       <c r="AH73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -34313,6 +34503,9 @@
       <c r="AH74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -34414,6 +34607,9 @@
       <c r="AH75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -34515,6 +34711,9 @@
       <c r="AH76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -34616,6 +34815,9 @@
       <c r="AH77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -34717,6 +34919,9 @@
       <c r="AH78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -34818,6 +35023,9 @@
       <c r="AH79" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI79" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -34919,6 +35127,9 @@
       <c r="AH80" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI80" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -35020,6 +35231,9 @@
       <c r="AH81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -35121,6 +35335,9 @@
       <c r="AH82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -35222,6 +35439,9 @@
       <c r="AH83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -35323,6 +35543,9 @@
       <c r="AH84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -35424,6 +35647,9 @@
       <c r="AH85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -35525,6 +35751,9 @@
       <c r="AH86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -35626,6 +35855,9 @@
       <c r="AH87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -35727,6 +35959,9 @@
       <c r="AH88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -35828,6 +36063,9 @@
       <c r="AH89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -35929,6 +36167,9 @@
       <c r="AH90" s="25" t="n">
         <v>8.212866177E9</v>
       </c>
+      <c r="AI90" s="25" t="n">
+        <v>9.117360939E9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -36030,6 +36271,9 @@
       <c r="AH91" s="25" t="n">
         <v>1.755357751E9</v>
       </c>
+      <c r="AI91" s="25" t="n">
+        <v>2.418155512E9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -36131,6 +36375,9 @@
       <c r="AH92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -36232,6 +36479,9 @@
       <c r="AH93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -36333,6 +36583,9 @@
       <c r="AH94" s="25" t="n">
         <v>6.288356204E9</v>
       </c>
+      <c r="AI94" s="25" t="n">
+        <v>6.499827573E9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -36434,6 +36687,9 @@
       <c r="AH95" s="25" t="n">
         <v>1.66240222E8</v>
       </c>
+      <c r="AI95" s="25" t="n">
+        <v>1.96265854E8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -36535,6 +36791,9 @@
       <c r="AH96" s="25" t="n">
         <v>2912000.0</v>
       </c>
+      <c r="AI96" s="25" t="n">
+        <v>2912000.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -36636,6 +36895,9 @@
       <c r="AH97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -36737,6 +36999,9 @@
       <c r="AH98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI98" s="25" t="n">
+        <v>200000.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -36838,6 +37103,9 @@
       <c r="AH99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -36939,6 +37207,9 @@
       <c r="AH100" s="25" t="n">
         <v>8.096245105E9</v>
       </c>
+      <c r="AI100" s="25" t="n">
+        <v>1.1448282905E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -37040,6 +37311,9 @@
       <c r="AH101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -37141,6 +37415,9 @@
       <c r="AH102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -37242,6 +37519,9 @@
       <c r="AH103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -37343,6 +37623,9 @@
       <c r="AH104" s="25" t="n">
         <v>8.096245105E9</v>
       </c>
+      <c r="AI104" s="25" t="n">
+        <v>1.1448282905E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -37444,6 +37727,9 @@
       <c r="AH105" s="25" t="n">
         <v>7.41899095E8</v>
       </c>
+      <c r="AI105" s="25" t="n">
+        <v>4.69476314E8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -37545,6 +37831,9 @@
       <c r="AH106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -37646,6 +37935,9 @@
       <c r="AH107" s="25" t="n">
         <v>2.5527816E8</v>
       </c>
+      <c r="AI107" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -37747,6 +38039,9 @@
       <c r="AH108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -37848,6 +38143,9 @@
       <c r="AH109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -37949,6 +38247,9 @@
       <c r="AH110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -38050,6 +38351,9 @@
       <c r="AH111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -38151,6 +38455,9 @@
       <c r="AH112" s="25" t="n">
         <v>1.44914552E8</v>
       </c>
+      <c r="AI112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -38252,6 +38559,9 @@
       <c r="AH113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -38353,6 +38663,9 @@
       <c r="AH114" s="25" t="n">
         <v>3.41706383E8</v>
       </c>
+      <c r="AI114" s="25" t="n">
+        <v>4.69476314E8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -38454,6 +38767,9 @@
       <c r="AH115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -38555,6 +38871,9 @@
       <c r="AH116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -38656,6 +38975,9 @@
       <c r="AH117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -38757,6 +39079,9 @@
       <c r="AH118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -38858,6 +39183,9 @@
       <c r="AH119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -38959,6 +39287,9 @@
       <c r="AH120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -39060,6 +39391,9 @@
       <c r="AH121" s="25" t="n">
         <v>1.204659E11</v>
       </c>
+      <c r="AI121" s="25" t="n">
+        <v>1.204659E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -39161,6 +39495,9 @@
       <c r="AH122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -39262,6 +39599,9 @@
       <c r="AH123" s="25" t="n">
         <v>1.204659E11</v>
       </c>
+      <c r="AI123" s="25" t="n">
+        <v>1.204659E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -39363,6 +39703,9 @@
       <c r="AH124" s="25" t="n">
         <v>1.90385471799E11</v>
       </c>
+      <c r="AI124" s="25" t="n">
+        <v>1.79568446191E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -39464,6 +39807,9 @@
       <c r="AH125" s="25" t="n">
         <v>1.90385471799E11</v>
       </c>
+      <c r="AI125" s="25" t="n">
+        <v>1.79568446191E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -39565,6 +39911,9 @@
       <c r="AH126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -39666,6 +40015,9 @@
       <c r="AH127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -39767,6 +40119,9 @@
       <c r="AH128" s="25" t="n">
         <v>3.14055385E8</v>
       </c>
+      <c r="AI128" s="25" t="n">
+        <v>2.91482443E8</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -39868,6 +40223,9 @@
       <c r="AH129" s="25" t="n">
         <v>9535625.0</v>
       </c>
+      <c r="AI129" s="25" t="n">
+        <v>2687081.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -39969,6 +40327,9 @@
       <c r="AH130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -40070,6 +40431,9 @@
       <c r="AH131" s="25" t="n">
         <v>3.0451976E8</v>
       </c>
+      <c r="AI131" s="25" t="n">
+        <v>2.88795362E8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -40171,6 +40535,9 @@
       <c r="AH132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -40272,6 +40639,9 @@
       <c r="AH133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -40373,6 +40743,9 @@
       <c r="AH134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -40474,6 +40847,9 @@
       <c r="AH135" s="25" t="n">
         <v>1.51379537197E11</v>
       </c>
+      <c r="AI135" s="25" t="n">
+        <v>1.41028530046E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -40575,6 +40951,9 @@
       <c r="AH136" s="25" t="n">
         <v>1.51379537197E11</v>
       </c>
+      <c r="AI136" s="25" t="n">
+        <v>1.41028530046E11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -40676,6 +41055,9 @@
       <c r="AH137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -40777,6 +41159,9 @@
       <c r="AH138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -40878,6 +41263,9 @@
       <c r="AH139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -40979,6 +41367,9 @@
       <c r="AH140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -41080,6 +41471,9 @@
       <c r="AH141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -41181,6 +41575,9 @@
       <c r="AH142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -41282,6 +41679,9 @@
       <c r="AH143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -41383,6 +41783,9 @@
       <c r="AH144" s="25" t="n">
         <v>2.000966584E9</v>
       </c>
+      <c r="AI144" s="25" t="n">
+        <v>1.961823958E9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -41484,6 +41887,9 @@
       <c r="AH145" s="25" t="n">
         <v>1.28366672E9</v>
       </c>
+      <c r="AI145" s="25" t="n">
+        <v>1.452217889E9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -41585,6 +41991,9 @@
       <c r="AH146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -41686,6 +42095,9 @@
       <c r="AH147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -41787,6 +42199,9 @@
       <c r="AH148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -41888,6 +42303,9 @@
       <c r="AH149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -41989,6 +42407,9 @@
       <c r="AH150" s="25" t="n">
         <v>6.91528831E8</v>
       </c>
+      <c r="AI150" s="25" t="n">
+        <v>5.35377102E8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -42090,6 +42511,9 @@
       <c r="AH151" s="25" t="n">
         <v>2.5771033E7</v>
       </c>
+      <c r="AI151" s="25" t="n">
+        <v>-2.5771033E7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -42191,6 +42615,9 @@
       <c r="AH152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -42292,6 +42719,9 @@
       <c r="AH153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -42393,6 +42823,9 @@
       <c r="AH154" s="25" t="n">
         <v>2.11556499E8</v>
       </c>
+      <c r="AI154" s="25" t="n">
+        <v>4.0632357E7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -42494,6 +42927,9 @@
       <c r="AH155" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI155" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -42595,6 +43031,9 @@
       <c r="AH156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -42696,6 +43135,9 @@
       <c r="AH157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -42797,6 +43239,9 @@
       <c r="AH158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -42898,6 +43343,9 @@
       <c r="AH159" s="25" t="n">
         <v>2.11556499E8</v>
       </c>
+      <c r="AI159" s="25" t="n">
+        <v>4.0632357E7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -42999,6 +43447,9 @@
       <c r="AH160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -43100,6 +43551,9 @@
       <c r="AH161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -43201,6 +43655,9 @@
       <c r="AH162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AI162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -43302,6 +43759,9 @@
       <c r="AH163" s="25" t="n">
         <v>1.78296623547E11</v>
       </c>
+      <c r="AI163" s="25" t="n">
+        <v>1.56704089499E11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -43403,6 +43863,9 @@
       <c r="AH164" s="25" t="n">
         <v>1.17322258221E11</v>
       </c>
+      <c r="AI164" s="25" t="n">
+        <v>1.0214916384E11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -43504,6 +43967,9 @@
       <c r="AH165" s="25" t="n">
         <v>3.7137753175E10</v>
       </c>
+      <c r="AI165" s="25" t="n">
+        <v>3.3786906008E10</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -43605,6 +44071,9 @@
       <c r="AH166" s="25" t="n">
         <v>7.88933422E8</v>
       </c>
+      <c r="AI166" s="25" t="n">
+        <v>7.46777571E8</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -43706,6 +44175,9 @@
       <c r="AH167" s="25" t="n">
         <v>1.5209367156E10</v>
       </c>
+      <c r="AI167" s="25" t="n">
+        <v>1.2181719431E10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -43806,6 +44278,9 @@
       </c>
       <c r="AH168" s="25" t="n">
         <v>7.838311573E9</v>
+      </c>
+      <c r="AI168" s="25" t="n">
+        <v>7.839522649E9</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -43846,7 +44321,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I10:AI10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SAF.xlsx
+++ b/data/SAF.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SAF</t>

--- a/data/SAF.xlsx
+++ b/data/SAF.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SAF</t>

--- a/data/SAF.xlsx
+++ b/data/SAF.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SAF</t>
